--- a/Raporty.xlsx
+++ b/Raporty.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin2\Desktop\IIUI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin2\Desktop\Repo\IIUI\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,18 +34,18 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId6"/>
-    <pivotCache cacheId="42" r:id="rId7"/>
-    <pivotCache cacheId="129" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="24" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
       <x14:pivotCaches>
-        <pivotCache cacheId="1" r:id="rId9"/>
-        <pivotCache cacheId="2" r:id="rId10"/>
-        <pivotCache cacheId="39" r:id="rId11"/>
-        <pivotCache cacheId="63" r:id="rId12"/>
-        <pivotCache cacheId="111" r:id="rId13"/>
+        <pivotCache cacheId="3" r:id="rId9"/>
+        <pivotCache cacheId="4" r:id="rId10"/>
+        <pivotCache cacheId="5" r:id="rId11"/>
+        <pivotCache cacheId="6" r:id="rId12"/>
+        <pivotCache cacheId="7" r:id="rId13"/>
       </x14:pivotCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -69,8 +69,8 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{841E416B-1EF1-43b6-AB56-02D37102CBD5}">
       <x15:pivotCaches>
-        <pivotCache cacheId="72" r:id="rId26"/>
-        <pivotCache cacheId="90" r:id="rId27"/>
+        <pivotCache cacheId="8" r:id="rId26"/>
+        <pivotCache cacheId="18" r:id="rId27"/>
       </x15:pivotCaches>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{983426D0-5260-488c-9760-48F4B6AC55F4}">
@@ -401,7 +401,17 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -434,6 +444,33 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout>
@@ -451,268 +488,6 @@
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Grupa Farmaceutyczna</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strLit>
-              <c:ptCount val="39"/>
-              <c:pt idx="0">
-                <c:v>APRA</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>APROFEN</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>APROVEL</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>BESTPIRIN</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>BETADINE</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>CALCIUM SYROP</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>CALCORT</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>DELATAR</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>DIAPREL</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>EKOGAL</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>ELENIUM</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>FOLIMIN</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>FORADIL</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>GELASPAN</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>GEMBIN</c:v>
-              </c:pt>
-              <c:pt idx="15">
-                <c:v>HEDELIX</c:v>
-              </c:pt>
-              <c:pt idx="16">
-                <c:v>HELASON</c:v>
-              </c:pt>
-              <c:pt idx="17">
-                <c:v>IBUPROM</c:v>
-              </c:pt>
-              <c:pt idx="18">
-                <c:v>JARVIS</c:v>
-              </c:pt>
-              <c:pt idx="19">
-                <c:v>JAYDESS</c:v>
-              </c:pt>
-              <c:pt idx="20">
-                <c:v>KENALOG</c:v>
-              </c:pt>
-              <c:pt idx="21">
-                <c:v>KEPPRA</c:v>
-              </c:pt>
-              <c:pt idx="22">
-                <c:v>LESINE</c:v>
-              </c:pt>
-              <c:pt idx="23">
-                <c:v>LEWOMEZIN</c:v>
-              </c:pt>
-              <c:pt idx="24">
-                <c:v>NERVOLEK</c:v>
-              </c:pt>
-              <c:pt idx="25">
-                <c:v>NERVOMAG</c:v>
-              </c:pt>
-              <c:pt idx="26">
-                <c:v>OROPRAM</c:v>
-              </c:pt>
-              <c:pt idx="27">
-                <c:v>OSSOPAN</c:v>
-              </c:pt>
-              <c:pt idx="28">
-                <c:v>PARACETAMOL</c:v>
-              </c:pt>
-              <c:pt idx="29">
-                <c:v>POLOPIRYNA S</c:v>
-              </c:pt>
-              <c:pt idx="30">
-                <c:v>RAMISTAD</c:v>
-              </c:pt>
-              <c:pt idx="31">
-                <c:v>RANIGAST</c:v>
-              </c:pt>
-              <c:pt idx="32">
-                <c:v>SALBUTAMOL</c:v>
-              </c:pt>
-              <c:pt idx="33">
-                <c:v>SAPOVEN</c:v>
-              </c:pt>
-              <c:pt idx="34">
-                <c:v>TARCEVA</c:v>
-              </c:pt>
-              <c:pt idx="35">
-                <c:v>YASMINELLE</c:v>
-              </c:pt>
-              <c:pt idx="36">
-                <c:v>YASNAL</c:v>
-              </c:pt>
-              <c:pt idx="37">
-                <c:v>ZULBEX</c:v>
-              </c:pt>
-              <c:pt idx="38">
-                <c:v>ZYRTEC</c:v>
-              </c:pt>
-            </c:strLit>
-          </c:cat>
-          <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="39"/>
-              <c:pt idx="0">
-                <c:v>342438</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>326055</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>190931</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>341543</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>1076793</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>168715</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>889069</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>156634</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>168374</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>500863</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>511526</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>151749</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>285945</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>147603</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>546536</c:v>
-              </c:pt>
-              <c:pt idx="15">
-                <c:v>164742</c:v>
-              </c:pt>
-              <c:pt idx="16">
-                <c:v>182409</c:v>
-              </c:pt>
-              <c:pt idx="17">
-                <c:v>1421121</c:v>
-              </c:pt>
-              <c:pt idx="18">
-                <c:v>735694</c:v>
-              </c:pt>
-              <c:pt idx="19">
-                <c:v>180799</c:v>
-              </c:pt>
-              <c:pt idx="20">
-                <c:v>787128</c:v>
-              </c:pt>
-              <c:pt idx="21">
-                <c:v>1966808</c:v>
-              </c:pt>
-              <c:pt idx="22">
-                <c:v>159164</c:v>
-              </c:pt>
-              <c:pt idx="23">
-                <c:v>365520</c:v>
-              </c:pt>
-              <c:pt idx="24">
-                <c:v>165683</c:v>
-              </c:pt>
-              <c:pt idx="25">
-                <c:v>172760</c:v>
-              </c:pt>
-              <c:pt idx="26">
-                <c:v>145474</c:v>
-              </c:pt>
-              <c:pt idx="27">
-                <c:v>169193</c:v>
-              </c:pt>
-              <c:pt idx="28">
-                <c:v>3361407</c:v>
-              </c:pt>
-              <c:pt idx="29">
-                <c:v>511781</c:v>
-              </c:pt>
-              <c:pt idx="30">
-                <c:v>492510</c:v>
-              </c:pt>
-              <c:pt idx="31">
-                <c:v>536631</c:v>
-              </c:pt>
-              <c:pt idx="32">
-                <c:v>945855</c:v>
-              </c:pt>
-              <c:pt idx="33">
-                <c:v>163070</c:v>
-              </c:pt>
-              <c:pt idx="34">
-                <c:v>507017</c:v>
-              </c:pt>
-              <c:pt idx="35">
-                <c:v>199848</c:v>
-              </c:pt>
-              <c:pt idx="36">
-                <c:v>341982</c:v>
-              </c:pt>
-              <c:pt idx="37">
-                <c:v>334137</c:v>
-              </c:pt>
-              <c:pt idx="38">
-                <c:v>1227485</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:val>
-        </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -984,12 +759,304 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="410576544"/>
-        <c:axId val="410576928"/>
+        <c:axId val="420312992"/>
+        <c:axId val="209014360"/>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Grupa Farmaceutyczna</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="39"/>
+              <c:pt idx="0">
+                <c:v>APRA</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>APROFEN</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>APROVEL</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>BESTPIRIN</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>BETADINE</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>CALCIUM SYROP</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>CALCORT</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>DELATAR</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>DIAPREL</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>EKOGAL</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>ELENIUM</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>FOLIMIN</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>FORADIL</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>GELASPAN</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>GEMBIN</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>HEDELIX</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>HELASON</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>IBUPROM</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>JARVIS</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>JAYDESS</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>KENALOG</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>KEPPRA</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>LESINE</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>LEWOMEZIN</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>NERVOLEK</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>NERVOMAG</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>OROPRAM</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>OSSOPAN</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>PARACETAMOL</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>POLOPIRYNA S</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>RAMISTAD</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>RANIGAST</c:v>
+              </c:pt>
+              <c:pt idx="32">
+                <c:v>SALBUTAMOL</c:v>
+              </c:pt>
+              <c:pt idx="33">
+                <c:v>SAPOVEN</c:v>
+              </c:pt>
+              <c:pt idx="34">
+                <c:v>TARCEVA</c:v>
+              </c:pt>
+              <c:pt idx="35">
+                <c:v>YASMINELLE</c:v>
+              </c:pt>
+              <c:pt idx="36">
+                <c:v>YASNAL</c:v>
+              </c:pt>
+              <c:pt idx="37">
+                <c:v>ZULBEX</c:v>
+              </c:pt>
+              <c:pt idx="38">
+                <c:v>ZYRTEC</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="39"/>
+              <c:pt idx="0">
+                <c:v>342438</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>326055</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>190931</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>341543</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>1076793</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>168715</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>889069</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>156634</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>168374</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>500863</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>511526</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>151749</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>285945</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>147603</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>546536</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>164742</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>182409</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>1421121</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>735694</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>180799</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>787128</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>1966808</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>159164</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>365520</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>165683</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>172760</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>145474</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>169193</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>3361407</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>511781</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>492510</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>536631</c:v>
+              </c:pt>
+              <c:pt idx="32">
+                <c:v>945855</c:v>
+              </c:pt>
+              <c:pt idx="33">
+                <c:v>163070</c:v>
+              </c:pt>
+              <c:pt idx="34">
+                <c:v>507017</c:v>
+              </c:pt>
+              <c:pt idx="35">
+                <c:v>199848</c:v>
+              </c:pt>
+              <c:pt idx="36">
+                <c:v>341982</c:v>
+              </c:pt>
+              <c:pt idx="37">
+                <c:v>334137</c:v>
+              </c:pt>
+              <c:pt idx="38">
+                <c:v>1227485</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="420312992"/>
+        <c:axId val="209014360"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="410576544"/>
+        <c:axId val="420312992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1032,7 +1099,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="410576928"/>
+        <c:crossAx val="209014360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1045,7 +1112,7 @@
         </c:extLst>
       </c:catAx>
       <c:valAx>
-        <c:axId val="410576928"/>
+        <c:axId val="209014360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1096,7 +1163,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="410576544"/>
+        <c:crossAx val="420312992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:extLst>
@@ -1121,8 +1188,8 @@
           <c:yMode val="edge"/>
           <c:x val="8.1404456166695519E-2"/>
           <c:y val="1.1671274869267294E-2"/>
-          <c:w val="0.23288693054566223"/>
-          <c:h val="8.5410864672450293E-2"/>
+          <c:w val="0.11788434758613608"/>
+          <c:h val="0.10237439308636039"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1219,33 +1286,225 @@
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent1">
+              <a:alpha val="85000"/>
+            </a:schemeClr>
           </a:solidFill>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
+          <a:sp3d contourW="9525">
+            <a:contourClr>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:contourClr>
+          </a:sp3d>
         </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5B9BD5">
+                <a:alpha val="30000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:alpha val="50000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="63500" dist="88900" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="9525">
+            <a:contourClr>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ED7D31">
+                <a:alpha val="30000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:alpha val="50000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="63500" dist="88900" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="60"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="100"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.7315381873562108E-2"/>
-          <c:y val="0.11654181309713059"/>
-          <c:w val="0.84389788434255697"/>
-          <c:h val="0.7451301791192374"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
+      <c:layout/>
+      <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
@@ -1257,12 +1516,26 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -1392,121 +1665,121 @@
               <c:formatCode>General</c:formatCode>
               <c:ptCount val="39"/>
               <c:pt idx="0">
-                <c:v>3484529</c:v>
+                <c:v>1858472</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>5242341</c:v>
+                <c:v>5339071</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>2975711</c:v>
+                <c:v>2003375</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>4179027</c:v>
+                <c:v>3713422</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>19037342</c:v>
+                <c:v>22527796</c:v>
               </c:pt>
               <c:pt idx="5">
-                <c:v>246900</c:v>
+                <c:v>129375</c:v>
               </c:pt>
               <c:pt idx="6">
-                <c:v>10464680</c:v>
+                <c:v>11339949</c:v>
               </c:pt>
               <c:pt idx="7">
-                <c:v>4187748</c:v>
+                <c:v>3114476</c:v>
               </c:pt>
               <c:pt idx="8">
-                <c:v>2232054</c:v>
+                <c:v>3136386</c:v>
               </c:pt>
               <c:pt idx="9">
-                <c:v>2877148</c:v>
+                <c:v>3036977</c:v>
               </c:pt>
               <c:pt idx="10">
-                <c:v>8867499</c:v>
+                <c:v>10544354</c:v>
               </c:pt>
               <c:pt idx="11">
-                <c:v>1114074</c:v>
+                <c:v>1301724</c:v>
               </c:pt>
               <c:pt idx="12">
-                <c:v>2410335</c:v>
+                <c:v>2014790</c:v>
               </c:pt>
               <c:pt idx="13">
-                <c:v>3569167</c:v>
+                <c:v>5536475</c:v>
               </c:pt>
               <c:pt idx="14">
-                <c:v>10669881</c:v>
+                <c:v>11082891</c:v>
               </c:pt>
               <c:pt idx="15">
-                <c:v>1614218</c:v>
+                <c:v>1529558</c:v>
               </c:pt>
               <c:pt idx="16">
-                <c:v>2517775</c:v>
+                <c:v>3632330</c:v>
               </c:pt>
               <c:pt idx="17">
-                <c:v>23203259</c:v>
+                <c:v>23563991</c:v>
               </c:pt>
               <c:pt idx="18">
-                <c:v>5701959</c:v>
+                <c:v>7067574</c:v>
               </c:pt>
               <c:pt idx="19">
-                <c:v>3423920</c:v>
+                <c:v>3237520</c:v>
               </c:pt>
               <c:pt idx="20">
-                <c:v>12637472</c:v>
+                <c:v>10928779</c:v>
               </c:pt>
               <c:pt idx="21">
-                <c:v>33460623</c:v>
+                <c:v>34621018</c:v>
               </c:pt>
               <c:pt idx="22">
-                <c:v>5855886</c:v>
+                <c:v>4453217</c:v>
               </c:pt>
               <c:pt idx="23">
-                <c:v>5159968</c:v>
+                <c:v>5459104</c:v>
               </c:pt>
               <c:pt idx="24">
-                <c:v>1640878</c:v>
+                <c:v>1229338</c:v>
               </c:pt>
               <c:pt idx="25">
-                <c:v>334390</c:v>
+                <c:v>337700</c:v>
               </c:pt>
               <c:pt idx="26">
-                <c:v>2209928</c:v>
+                <c:v>1902208</c:v>
               </c:pt>
               <c:pt idx="27">
-                <c:v>3031578</c:v>
+                <c:v>3390651</c:v>
               </c:pt>
               <c:pt idx="28">
-                <c:v>53945412</c:v>
+                <c:v>48385330</c:v>
               </c:pt>
               <c:pt idx="29">
-                <c:v>8439174</c:v>
+                <c:v>8161895</c:v>
               </c:pt>
               <c:pt idx="30">
-                <c:v>6726843</c:v>
+                <c:v>6368395</c:v>
               </c:pt>
               <c:pt idx="31">
-                <c:v>7463631</c:v>
+                <c:v>9841621</c:v>
               </c:pt>
               <c:pt idx="32">
-                <c:v>17998844</c:v>
+                <c:v>19598155</c:v>
               </c:pt>
               <c:pt idx="33">
-                <c:v>441876</c:v>
+                <c:v>467748</c:v>
               </c:pt>
               <c:pt idx="34">
-                <c:v>9206553</c:v>
+                <c:v>10219809</c:v>
               </c:pt>
               <c:pt idx="35">
-                <c:v>3513988</c:v>
+                <c:v>2917284</c:v>
               </c:pt>
               <c:pt idx="36">
-                <c:v>5405356</c:v>
+                <c:v>4966768</c:v>
               </c:pt>
               <c:pt idx="37">
-                <c:v>3567768</c:v>
+                <c:v>3956077</c:v>
               </c:pt>
               <c:pt idx="38">
-                <c:v>18192467</c:v>
+                <c:v>15797156</c:v>
               </c:pt>
             </c:numLit>
           </c:val>
@@ -1519,12 +1792,26 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent2">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -1654,121 +1941,121 @@
               <c:formatCode>General</c:formatCode>
               <c:ptCount val="39"/>
               <c:pt idx="0">
-                <c:v>7722265</c:v>
+                <c:v>7188949</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>15297812</c:v>
+                <c:v>17514960</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>5017355</c:v>
+                <c:v>5998825</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>11643305</c:v>
+                <c:v>11029945</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>40345860</c:v>
+                <c:v>37755448</c:v>
               </c:pt>
               <c:pt idx="5">
-                <c:v>523250</c:v>
+                <c:v>467585</c:v>
               </c:pt>
               <c:pt idx="6">
-                <c:v>27926714</c:v>
+                <c:v>28156163</c:v>
               </c:pt>
               <c:pt idx="7">
-                <c:v>1503612</c:v>
+                <c:v>2089512</c:v>
               </c:pt>
               <c:pt idx="8">
-                <c:v>7233072</c:v>
+                <c:v>7593894</c:v>
               </c:pt>
               <c:pt idx="9">
-                <c:v>12604592</c:v>
+                <c:v>12524439</c:v>
               </c:pt>
               <c:pt idx="10">
-                <c:v>37754411</c:v>
+                <c:v>37150517</c:v>
               </c:pt>
               <c:pt idx="11">
-                <c:v>2693790</c:v>
+                <c:v>2680344</c:v>
               </c:pt>
               <c:pt idx="12">
-                <c:v>3684855</c:v>
+                <c:v>3569914</c:v>
               </c:pt>
               <c:pt idx="13">
-                <c:v>12538078</c:v>
+                <c:v>11159344</c:v>
               </c:pt>
               <c:pt idx="14">
-                <c:v>20614292</c:v>
+                <c:v>18558791</c:v>
               </c:pt>
               <c:pt idx="15">
-                <c:v>7966764</c:v>
+                <c:v>7847190</c:v>
               </c:pt>
               <c:pt idx="16">
-                <c:v>11124640</c:v>
+                <c:v>9474988</c:v>
               </c:pt>
               <c:pt idx="17">
-                <c:v>75052085</c:v>
+                <c:v>73574318</c:v>
               </c:pt>
               <c:pt idx="18">
-                <c:v>14503122</c:v>
+                <c:v>14939193</c:v>
               </c:pt>
               <c:pt idx="19">
-                <c:v>8345920</c:v>
+                <c:v>9658880</c:v>
               </c:pt>
               <c:pt idx="20">
-                <c:v>37310856</c:v>
+                <c:v>37814431</c:v>
               </c:pt>
               <c:pt idx="21">
-                <c:v>89518023</c:v>
+                <c:v>83290232</c:v>
               </c:pt>
               <c:pt idx="22">
-                <c:v>17437534</c:v>
+                <c:v>16648656</c:v>
               </c:pt>
               <c:pt idx="23">
-                <c:v>19302530</c:v>
+                <c:v>15926810</c:v>
               </c:pt>
               <c:pt idx="24">
-                <c:v>2815400</c:v>
+                <c:v>2172175</c:v>
               </c:pt>
               <c:pt idx="25">
-                <c:v>984850</c:v>
+                <c:v>1211680</c:v>
               </c:pt>
               <c:pt idx="26">
-                <c:v>11497200</c:v>
+                <c:v>12358440</c:v>
               </c:pt>
               <c:pt idx="27">
-                <c:v>5435644</c:v>
+                <c:v>5167885</c:v>
               </c:pt>
               <c:pt idx="28">
-                <c:v>128750704</c:v>
+                <c:v>137861853</c:v>
               </c:pt>
               <c:pt idx="29">
-                <c:v>21777068</c:v>
+                <c:v>23780837</c:v>
               </c:pt>
               <c:pt idx="30">
-                <c:v>8150908</c:v>
+                <c:v>8175316</c:v>
               </c:pt>
               <c:pt idx="31">
-                <c:v>22250578</c:v>
+                <c:v>22160016</c:v>
               </c:pt>
               <c:pt idx="32">
-                <c:v>36129052</c:v>
+                <c:v>39920174</c:v>
               </c:pt>
               <c:pt idx="33">
-                <c:v>7087860</c:v>
+                <c:v>7584135</c:v>
               </c:pt>
               <c:pt idx="34">
-                <c:v>26833021</c:v>
+                <c:v>28733430</c:v>
               </c:pt>
               <c:pt idx="35">
-                <c:v>17437534</c:v>
+                <c:v>16648656</c:v>
               </c:pt>
               <c:pt idx="36">
-                <c:v>6412592</c:v>
+                <c:v>7609823</c:v>
               </c:pt>
               <c:pt idx="37">
-                <c:v>11241303</c:v>
+                <c:v>11989614</c:v>
               </c:pt>
               <c:pt idx="38">
-                <c:v>61025514</c:v>
+                <c:v>62849588</c:v>
               </c:pt>
             </c:numLit>
           </c:val>
@@ -1781,29 +2068,86 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="519625776"/>
-        <c:axId val="519624600"/>
-      </c:barChart>
+        <c:gapWidth val="300"/>
+        <c:shape val="box"/>
+        <c:axId val="208594440"/>
+        <c:axId val="207887032"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
       <c:catAx>
-        <c:axId val="519625776"/>
+        <c:axId val="208594440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="2000"/>
+                  <a:t>Produkty</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1815,11 +2159,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1830,7 +2174,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519624600"/>
+        <c:crossAx val="207887032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1843,7 +2187,7 @@
         </c:extLst>
       </c:catAx>
       <c:valAx>
-        <c:axId val="519624600"/>
+        <c:axId val="207887032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1853,7 +2197,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -1863,8 +2207,88 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="2000"/>
+                  <a:t>Wartość</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="2000" baseline="0"/>
+                  <a:t> PLN</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1881,9 +2305,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1894,7 +2318,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519625776"/>
+        <c:crossAx val="208594440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:extLst>
@@ -1913,19 +2337,15 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.8327240093378058E-2"/>
-          <c:y val="9.0256104887631791E-3"/>
-          <c:w val="0.18393434516337631"/>
-          <c:h val="0.10866478455891866"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1938,9 +2358,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1957,14 +2377,30 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -2071,6 +2507,44 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:view3D>
@@ -2191,10 +2665,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>25298166</c:v>
+                  <c:v>5433499</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39197736</c:v>
+                  <c:v>5217507</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2922,71 +3396,87 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="288">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="75000"/>
         <a:lumOff val="25000"/>
       </a:schemeClr>
@@ -2998,95 +3488,124 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3102,21 +3621,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3131,13 +3648,13 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -3150,17 +3667,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3169,12 +3686,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -3188,13 +3705,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:sp3d/>
     </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
@@ -3202,12 +3721,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -3221,12 +3740,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
@@ -3240,17 +3759,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -3259,17 +3778,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3278,27 +3796,35 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3306,11 +3832,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr/>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3318,14 +3845,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3337,12 +3864,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3351,14 +3878,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3367,9 +3893,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3387,9 +3913,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3400,11 +3926,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3412,14 +3943,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3958,8 +4483,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>135255</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Rok"/>
@@ -3976,7 +4501,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -4030,8 +4555,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>127635</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Product Name"/>
@@ -4048,7 +4573,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -4102,8 +4627,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>112395</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="Product Det"/>
@@ -4120,7 +4645,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -4174,8 +4699,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="6" name="Territory Name"/>
@@ -4192,7 +4717,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -4251,8 +4776,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>7621</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Rok 2"/>
@@ -4269,7 +4794,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -4323,8 +4848,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>127635</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Product Name 1"/>
@@ -4341,7 +4866,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -4395,8 +4920,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>89535</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Product Det 1"/>
@@ -4413,7 +4938,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -4467,8 +4992,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>30481</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="Territory Name 1"/>
@@ -4485,7 +5010,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -4681,8 +5206,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>158115</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Rok 3"/>
@@ -4699,7 +5224,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -4788,8 +5313,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>173355</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="Rok 4"/>
@@ -4806,7 +5331,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -4860,8 +5385,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>20955</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="6" name="Product Name 2"/>
@@ -4878,7 +5403,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -5066,7 +5591,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="admin2" refreshedDate="42754.542434143521" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="admin2" refreshedDate="42754.558760532411" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
   <cacheSource type="external" connectionId="4">
     <extLst>
       <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F057638F-6D5F-4e77-A914-E7F072B9BCA8}">
@@ -5344,7 +5869,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="admin2" refreshedDate="42754.545313194445" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="admin2" refreshedDate="42754.560204629626" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
   <cacheSource type="external" connectionId="5"/>
   <cacheFields count="4">
     <cacheField name="[Measures].[Wartosc]" caption="Wartosc" numFmtId="0" hierarchy="16" level="32767"/>
@@ -5752,701 +6277,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotChartTable2" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
-  <location ref="A3:D44" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1">
-      <items count="40">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" allDrilled="1" showAll="0" dataSourceSort="1">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField allDrilled="1" showAll="0" dataSourceSort="1"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="40">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField fld="0" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="18">
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1">
-      <members count="1" level="1">
-        <member name="[C Dim Cycle].[Okres].[Rok].&amp;[2013]"/>
-      </members>
-    </pivotHierarchy>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="3"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="13"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
-      <x15:pivotTableData rowCount="40" columnCount="3" cacheId="13">
-        <x15:pivotRow count="3">
-          <x15:c>
-            <x15:v>3484529</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>7722265</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>11206794</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="3">
-          <x15:c>
-            <x15:v>5242341</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>15297812</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>20540153</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="3">
-          <x15:c>
-            <x15:v>2975711</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>5017355</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>7993066</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="3">
-          <x15:c>
-            <x15:v>4179027</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>11643305</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>15822332</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="3">
-          <x15:c>
-            <x15:v>19037342</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>40345860</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>59383202</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="3">
-          <x15:c>
-            <x15:v>246900</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>523250</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>770150</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="3">
-          <x15:c>
-            <x15:v>10464680</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>27926714</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>38391394</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="3">
-          <x15:c>
-            <x15:v>4187748</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>1503612</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>5691360</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="3">
-          <x15:c>
-            <x15:v>2232054</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>7233072</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>9465126</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="3">
-          <x15:c>
-            <x15:v>2877148</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>12604592</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>15481740</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="3">
-          <x15:c>
-            <x15:v>8867499</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>37754411</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>46621910</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="3">
-          <x15:c>
-            <x15:v>1114074</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>2693790</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>3807864</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="3">
-          <x15:c>
-            <x15:v>2410335</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>3684855</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>6095190</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="3">
-          <x15:c>
-            <x15:v>3569167</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>12538078</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>16107245</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="3">
-          <x15:c>
-            <x15:v>10669881</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>20614292</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>31284173</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="3">
-          <x15:c>
-            <x15:v>1614218</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>7966764</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>9580982</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="3">
-          <x15:c>
-            <x15:v>2517775</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>11124640</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>13642415</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="3">
-          <x15:c>
-            <x15:v>23203259</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>75052085</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>98255344</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="3">
-          <x15:c>
-            <x15:v>5701959</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>14503122</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>20205081</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="3">
-          <x15:c>
-            <x15:v>3423920</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>8345920</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>11769840</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="3">
-          <x15:c>
-            <x15:v>12637472</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>37310856</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>49948328</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="3">
-          <x15:c>
-            <x15:v>33460623</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>89518023</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>122978646</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="3">
-          <x15:c>
-            <x15:v>5855886</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>17437534</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>23293420</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="3">
-          <x15:c>
-            <x15:v>5159968</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>19302530</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>24462498</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="3">
-          <x15:c>
-            <x15:v>1640878</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>2815400</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>4456278</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="3">
-          <x15:c>
-            <x15:v>334390</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>984850</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>1319240</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="3">
-          <x15:c>
-            <x15:v>2209928</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>11497200</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>13707128</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="3">
-          <x15:c>
-            <x15:v>3031578</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>5435644</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>8467222</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="3">
-          <x15:c>
-            <x15:v>53945412</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>128750704</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>182696116</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="3">
-          <x15:c>
-            <x15:v>8439174</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>21777068</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>30216242</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="3">
-          <x15:c>
-            <x15:v>6726843</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>8150908</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>14877751</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="3">
-          <x15:c>
-            <x15:v>7463631</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>22250578</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>29714209</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="3">
-          <x15:c>
-            <x15:v>17998844</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>36129052</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>54127896</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="3">
-          <x15:c>
-            <x15:v>441876</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>7087860</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>7529736</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="3">
-          <x15:c>
-            <x15:v>9206553</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>26833021</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>36039574</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="3">
-          <x15:c>
-            <x15:v>3513988</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>17437534</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>20951522</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="3">
-          <x15:c>
-            <x15:v>5405356</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>6412592</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>11817948</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="3">
-          <x15:c>
-            <x15:v>3567768</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>11241303</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>14809071</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="3">
-          <x15:c>
-            <x15:v>18192467</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>61025514</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>79217981</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="3">
-          <x15:c>
-            <x15:v>317252202</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>855493965</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>1172746167</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-      </x15:pivotTableData>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotChartTable1" cacheId="72" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
-  <location ref="A3:D44" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotChartTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+  <location ref="A1:D42" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1">
       <items count="40">
@@ -6644,7 +6476,7 @@
   <dataFields count="1">
     <dataField fld="3" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="3">
+  <chartFormats count="4">
     <chartFormat chart="0" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -6671,6 +6503,18 @@
           </reference>
           <reference field="1" count="1" selected="0">
             <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -7154,8 +6998,725 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotChartTable2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+  <location ref="A1:D42" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1">
+      <items count="40">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" allDrilled="1" showAll="0" dataSourceSort="1">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField allDrilled="1" showAll="0" dataSourceSort="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="40">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="18">
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1">
+      <members count="1" level="1">
+        <member name="[C Dim Cycle].[Okres].[Rok].&amp;[2011]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="3"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="13"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
+      <x15:pivotTableData rowCount="40" columnCount="3" cacheId="13">
+        <x15:pivotRow count="3">
+          <x15:c>
+            <x15:v>1858472</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>7188949</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>9047421</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="3">
+          <x15:c>
+            <x15:v>5339071</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>17514960</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>22854031</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="3">
+          <x15:c>
+            <x15:v>2003375</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>5998825</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>8002200</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="3">
+          <x15:c>
+            <x15:v>3713422</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>11029945</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>14743367</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="3">
+          <x15:c>
+            <x15:v>22527796</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>37755448</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>60283244</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="3">
+          <x15:c>
+            <x15:v>129375</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>467585</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>596960</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="3">
+          <x15:c>
+            <x15:v>11339949</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>28156163</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>39496112</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="3">
+          <x15:c>
+            <x15:v>3114476</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>2089512</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>5203988</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="3">
+          <x15:c>
+            <x15:v>3136386</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>7593894</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>10730280</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="3">
+          <x15:c>
+            <x15:v>3036977</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>12524439</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>15561416</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="3">
+          <x15:c>
+            <x15:v>10544354</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>37150517</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>47694871</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="3">
+          <x15:c>
+            <x15:v>1301724</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>2680344</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>3982068</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="3">
+          <x15:c>
+            <x15:v>2014790</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>3569914</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>5584704</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="3">
+          <x15:c>
+            <x15:v>5536475</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>11159344</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>16695819</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="3">
+          <x15:c>
+            <x15:v>11082891</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>18558791</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>29641682</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="3">
+          <x15:c>
+            <x15:v>1529558</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>7847190</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>9376748</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="3">
+          <x15:c>
+            <x15:v>3632330</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>9474988</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>13107318</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="3">
+          <x15:c>
+            <x15:v>23563991</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>73574318</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>97138309</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="3">
+          <x15:c>
+            <x15:v>7067574</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>14939193</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>22006767</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="3">
+          <x15:c>
+            <x15:v>3237520</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>9658880</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>12896400</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="3">
+          <x15:c>
+            <x15:v>10928779</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>37814431</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>48743210</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="3">
+          <x15:c>
+            <x15:v>34621018</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>83290232</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>117911250</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="3">
+          <x15:c>
+            <x15:v>4453217</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>16648656</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>21101873</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="3">
+          <x15:c>
+            <x15:v>5459104</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>15926810</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>21385914</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="3">
+          <x15:c>
+            <x15:v>1229338</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>2172175</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>3401513</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="3">
+          <x15:c>
+            <x15:v>337700</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>1211680</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>1549380</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="3">
+          <x15:c>
+            <x15:v>1902208</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>12358440</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>14260648</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="3">
+          <x15:c>
+            <x15:v>3390651</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>5167885</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>8558536</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="3">
+          <x15:c>
+            <x15:v>48385330</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>137861853</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>186247183</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="3">
+          <x15:c>
+            <x15:v>8161895</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>23780837</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>31942732</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="3">
+          <x15:c>
+            <x15:v>6368395</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>8175316</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>14543711</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="3">
+          <x15:c>
+            <x15:v>9841621</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>22160016</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>32001637</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="3">
+          <x15:c>
+            <x15:v>19598155</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>39920174</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>59518329</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="3">
+          <x15:c>
+            <x15:v>467748</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>7584135</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>8051883</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="3">
+          <x15:c>
+            <x15:v>10219809</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>28733430</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>38953239</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="3">
+          <x15:c>
+            <x15:v>2917284</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>16648656</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>19565940</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="3">
+          <x15:c>
+            <x15:v>4966768</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>7609823</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>12576591</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="3">
+          <x15:c>
+            <x15:v>3956077</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>11989614</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>15945691</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="3">
+          <x15:c>
+            <x15:v>15797156</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>62849588</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>78646744</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="3">
+          <x15:c>
+            <x15:v>318712759</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>860836950</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>1179549709</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+      </x15:pivotTableData>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="A1:G239" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1">
@@ -8012,7 +8573,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna1" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:G1179" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" showAll="0"/>
@@ -11693,7 +12254,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna3" cacheId="129" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna3" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" fieldListSortAscending="1">
   <location ref="A4:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" showAll="0"/>
@@ -11727,7 +12288,7 @@
   <dataFields count="1">
     <dataField fld="0" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="4">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -11746,18 +12307,42 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="2" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotHierarchies count="18">
     <pivotHierarchy/>
     <pivotHierarchy multipleItemSelectionAllowed="1">
       <members count="1" level="1">
-        <member name="[C Dim Cycle].[Okres].[Rok].&amp;[2012]"/>
+        <member name="[C Dim Cycle].[Okres].[Rok].&amp;[2010]"/>
       </members>
     </pivotHierarchy>
     <pivotHierarchy/>
     <pivotHierarchy multipleItemSelectionAllowed="1">
       <members count="1" level="1">
-        <member name="[C Dim Product].[Grupa produktów].[Product Name].&amp;[BETADINE]"/>
+        <member name="[C Dim Product].[Grupa produktów].[Product Name].&amp;[BESTPIRIN]"/>
       </members>
     </pivotHierarchy>
     <pivotHierarchy/>
@@ -11837,7 +12422,7 @@
         </level>
       </levels>
       <selections count="1">
-        <selection n="[C Dim Cycle].[Okres].[Rok].&amp;[2013]"/>
+        <selection n="[C Dim Cycle].[Okres].[Rok].&amp;[2011]"/>
       </selections>
     </olap>
   </data>
@@ -11874,7 +12459,7 @@
         </level>
       </levels>
       <selections count="1">
-        <selection n="[C Dim Cycle].[Okres].[Rok].&amp;[2012]"/>
+        <selection n="[C Dim Cycle].[Okres].[Rok].&amp;[2010]"/>
       </selections>
     </olap>
   </data>
@@ -11937,7 +12522,7 @@
         </level>
       </levels>
       <selections count="1">
-        <selection n="[C Dim Product].[Grupa produktów].[Product Name].&amp;[BETADINE]"/>
+        <selection n="[C Dim Product].[Grupa produktów].[Product Name].&amp;[BESTPIRIN]"/>
       </selections>
     </olap>
   </data>
@@ -44452,8 +45037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44474,7 +45059,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -44515,7 +45102,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>25298166</v>
+        <v>5433499</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -44523,7 +45110,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>39197736</v>
+        <v>5217507</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -44531,7 +45118,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1">
-        <v>64495902</v>
+        <v>10651006</v>
       </c>
     </row>
   </sheetData>
